--- a/data/trans_dic/P55$amigo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,62</t>
+          <t>0,0; 30,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,12 +740,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,33</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,96</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,07</t>
+          <t>0,0; 11,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,6</t>
+          <t>0,6; 5,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,35</t>
+          <t>0,0; 8,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,64</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,31</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,31</t>
+          <t>0,82; 4,59</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,36</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 15,11</t>
+          <t>1,74; 15,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,39</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,76</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,97</t>
+          <t>2,62; 9,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>0,0; 5,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,53</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,4</t>
+          <t>0,0; 7,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,37</t>
+          <t>3,23; 9,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,05</t>
+          <t>0,0; 18,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,44</t>
+          <t>0,0; 19,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,47</t>
+          <t>0,0; 19,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 24,21</t>
+          <t>2,07; 24,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,6</t>
+          <t>0,0; 13,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,09</t>
+          <t>0,0; 12,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,52</t>
+          <t>0,0; 9,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 11,62</t>
+          <t>2,09; 12,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,98</t>
+          <t>1,04; 11,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,47</t>
+          <t>1,24; 10,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,9</t>
+          <t>0,0; 8,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 13,02</t>
+          <t>2,93; 12,4</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,95</t>
+          <t>0,0; 11,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,12 +1160,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,74</t>
+          <t>1,22; 13,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,42</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,35</t>
+          <t>0,0; 11,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,24</t>
+          <t>3,97; 12,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,92</t>
+          <t>0,0; 7,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,24</t>
+          <t>3,5; 9,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,46</t>
+          <t>0,0; 4,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,24</t>
+          <t>0,72; 10,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,01</t>
+          <t>2,25; 7,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,03</t>
+          <t>0,91; 5,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,06</t>
+          <t>0,35; 2,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,4</t>
+          <t>1,29; 5,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,32</t>
+          <t>3,73; 7,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,99</t>
+          <t>1,01; 4,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,95</t>
+          <t>0,76; 4,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,27</t>
+          <t>0,92; 4,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,74</t>
+          <t>3,6; 6,78</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda sus amistades cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2791</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10057</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1606</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3462</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5816</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6746</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>477; 4489</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6543</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9040</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6107</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1057; 5934</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4591</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6952</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4085</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>671; 5816</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5651</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5537</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7471</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2256; 8529</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6762</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5463</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8723</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4032; 11689</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3508</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2673</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5761</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4096</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5469</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4576</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>529; 6200</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6416</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6399</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4791</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1220; 7291</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>711; 7529</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>993; 8077</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6562</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2456; 10395</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2424</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7257</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2424</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9211</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1572</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4551</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1656</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>528; 5627</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3823</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2026</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9302</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4142; 12670</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4652</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5175</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7945</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5155; 14481</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4411</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7551</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17165</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7445</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7599</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8119</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24716</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6085</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1056; 14792</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4488</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3529; 12456</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2104; 11637</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>992; 7624</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3454; 15713</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12238; 24564</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3620; 14944</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3229; 18581</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3582; 16351</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17464; 32884</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>